--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/maestro_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/maestro_station_configuration_extended.xlsx
@@ -689,10 +689,10 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>20240811</v>
+        <v>20240809</v>
       </c>
       <c r="O2" t="n">
-        <v>20240811</v>
+        <v>20240809</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -757,7 +757,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240811120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240809180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -805,10 +805,10 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>20240812</v>
+        <v>20240810</v>
       </c>
       <c r="O3" t="n">
-        <v>20240812</v>
+        <v>20240810</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240812180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240810120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1037,10 +1037,10 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>20240811</v>
+        <v>20240812</v>
       </c>
       <c r="O5" t="n">
-        <v>20240811</v>
+        <v>20240812</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240811180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240812180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240811150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240811120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1269,10 +1269,10 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>20240812</v>
+        <v>20240811</v>
       </c>
       <c r="O7" t="n">
-        <v>20240812</v>
+        <v>20240811</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240812120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240811180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -1385,10 +1385,10 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>20240810</v>
+        <v>20240811</v>
       </c>
       <c r="O8" t="n">
-        <v>20240810</v>
+        <v>20240811</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240810060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240811150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -1501,10 +1501,10 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="O9" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240810090000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240812120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -1617,10 +1617,10 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="O10" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240814060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240810060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -1733,10 +1733,10 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="O11" t="n">
-        <v>20240814</v>
+        <v>20240810</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240814120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240810090000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -1849,10 +1849,10 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>20240828</v>
+        <v>20240814</v>
       </c>
       <c r="O12" t="n">
-        <v>20240828</v>
+        <v>20240814</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240828180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240814060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -1965,10 +1965,10 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>20240813</v>
+        <v>20240814</v>
       </c>
       <c r="O13" t="n">
-        <v>20240813</v>
+        <v>20240814</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240813060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240814120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -2081,10 +2081,10 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>20240813</v>
+        <v>20240828</v>
       </c>
       <c r="O14" t="n">
-        <v>20240813</v>
+        <v>20240828</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240813120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240828180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -2197,10 +2197,10 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>20240812</v>
+        <v>20240813</v>
       </c>
       <c r="O15" t="n">
-        <v>20240812</v>
+        <v>20240813</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240812060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240813060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -2313,10 +2313,10 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>20240811</v>
+        <v>20240813</v>
       </c>
       <c r="O16" t="n">
-        <v>20240811</v>
+        <v>20240813</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240811210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240813120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -2429,10 +2429,10 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="O17" t="n">
-        <v>20240810</v>
+        <v>20240812</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240810180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240812060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -2545,10 +2545,10 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>20240828</v>
+        <v>20240811</v>
       </c>
       <c r="O18" t="n">
-        <v>20240828</v>
+        <v>20240811</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240828060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240811210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -2638,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
@@ -2661,10 +2661,10 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>20240902</v>
+        <v>20240810</v>
       </c>
       <c r="O19" t="n">
-        <v>20240902</v>
+        <v>20240810</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240902120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240810180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -2754,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
@@ -2777,10 +2777,10 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>20240831</v>
+        <v>20240828</v>
       </c>
       <c r="O20" t="n">
-        <v>20240831</v>
+        <v>20240828</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240831150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240828060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -2893,10 +2893,10 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="O21" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240903120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240902120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -3009,10 +3009,10 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>20240911</v>
+        <v>20240831</v>
       </c>
       <c r="O22" t="n">
-        <v>20240911</v>
+        <v>20240831</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240911120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240831150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -3125,10 +3125,10 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>20240830</v>
+        <v>20240903</v>
       </c>
       <c r="O23" t="n">
-        <v>20240830</v>
+        <v>20240903</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240830180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240903120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -3241,10 +3241,10 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>20240906</v>
+        <v>20240830</v>
       </c>
       <c r="O24" t="n">
-        <v>20240906</v>
+        <v>20240830</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240906120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240830180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -3357,10 +3357,10 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>20240829</v>
+        <v>20240911</v>
       </c>
       <c r="O25" t="n">
-        <v>20240829</v>
+        <v>20240911</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240829150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240911120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -3473,10 +3473,10 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>20240829</v>
+        <v>20240906</v>
       </c>
       <c r="O26" t="n">
-        <v>20240829</v>
+        <v>20240906</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240829180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240906120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -3589,10 +3589,10 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>20240905</v>
+        <v>20240829</v>
       </c>
       <c r="O27" t="n">
-        <v>20240905</v>
+        <v>20240829</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240905180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240829150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -3705,10 +3705,10 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>20240906</v>
+        <v>20240829</v>
       </c>
       <c r="O28" t="n">
-        <v>20240906</v>
+        <v>20240829</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240906180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240829180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -3798,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
@@ -3821,10 +3821,10 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>20240819</v>
+        <v>20240905</v>
       </c>
       <c r="O29" t="n">
-        <v>20240819</v>
+        <v>20240905</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240819150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240905180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -3937,10 +3937,10 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>20240809</v>
+        <v>20240819</v>
       </c>
       <c r="O30" t="n">
-        <v>20240809</v>
+        <v>20240819</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240809180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240819150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -4030,7 +4030,7 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
@@ -4053,10 +4053,10 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>20240810</v>
+        <v>20240906</v>
       </c>
       <c r="O31" t="n">
-        <v>20240810</v>
+        <v>20240906</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240810120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240906180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -4726,7 +4726,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
@@ -4749,10 +4749,10 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>20240827</v>
+        <v>20240909</v>
       </c>
       <c r="O37" t="n">
-        <v>20240827</v>
+        <v>20240909</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240827210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240909120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -4842,7 +4842,7 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
@@ -4865,10 +4865,10 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>20240909</v>
+        <v>20240824</v>
       </c>
       <c r="O38" t="n">
-        <v>20240909</v>
+        <v>20240824</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240909120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240824180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
@@ -4981,10 +4981,10 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>20240824</v>
+        <v>20240827</v>
       </c>
       <c r="O39" t="n">
-        <v>20240824</v>
+        <v>20240827</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240824180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240827210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
@@ -5097,10 +5097,10 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>20240829</v>
+        <v>20240903</v>
       </c>
       <c r="O40" t="n">
-        <v>20240829</v>
+        <v>20240903</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240829120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240903060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
@@ -5190,7 +5190,7 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -5213,10 +5213,10 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>20240901</v>
+        <v>20240822</v>
       </c>
       <c r="O41" t="n">
-        <v>20240901</v>
+        <v>20240822</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240901210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240822210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
@@ -5329,10 +5329,10 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>20240903</v>
+        <v>20240901</v>
       </c>
       <c r="O42" t="n">
-        <v>20240903</v>
+        <v>20240901</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240903060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240901210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -5422,7 +5422,7 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
@@ -5445,10 +5445,10 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>20240822</v>
+        <v>20240829</v>
       </c>
       <c r="O43" t="n">
-        <v>20240822</v>
+        <v>20240829</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240822210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240829120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
@@ -5770,7 +5770,7 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
@@ -5793,10 +5793,10 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>20240910</v>
+        <v>20240819</v>
       </c>
       <c r="O46" t="n">
-        <v>20240910</v>
+        <v>20240819</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240910060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240819120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr">
@@ -5886,7 +5886,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
@@ -5909,10 +5909,10 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>20240810</v>
+        <v>20240910</v>
       </c>
       <c r="O47" t="n">
-        <v>20240810</v>
+        <v>20240910</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240810150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240910060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -6025,10 +6025,10 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>20240819</v>
+        <v>20240810</v>
       </c>
       <c r="O48" t="n">
-        <v>20240819</v>
+        <v>20240810</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240819120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240810150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR48" t="inlineStr">
@@ -6257,10 +6257,10 @@
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>20240818</v>
+        <v>20240816</v>
       </c>
       <c r="O50" t="n">
-        <v>20240818</v>
+        <v>20240816</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240818180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240816060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR50" t="inlineStr">
@@ -6373,10 +6373,10 @@
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>20240816</v>
+        <v>20240818</v>
       </c>
       <c r="O51" t="n">
-        <v>20240816</v>
+        <v>20240818</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240816060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240818180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR51" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240826210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240826060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR56" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240826060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240826210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR57" t="inlineStr">
@@ -7185,10 +7185,10 @@
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>20240824</v>
+        <v>20240828</v>
       </c>
       <c r="O58" t="n">
-        <v>20240824</v>
+        <v>20240828</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240824120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240828120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR58" t="inlineStr">
@@ -7278,7 +7278,7 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
@@ -7301,10 +7301,10 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>20240907</v>
+        <v>20240819</v>
       </c>
       <c r="O59" t="n">
-        <v>20240907</v>
+        <v>20240819</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240907180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240819060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR59" t="inlineStr">
@@ -7417,10 +7417,10 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>20240819</v>
+        <v>20240824</v>
       </c>
       <c r="O60" t="n">
-        <v>20240819</v>
+        <v>20240824</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240819060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240824120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR60" t="inlineStr">
@@ -7533,10 +7533,10 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>20240828</v>
+        <v>20240823</v>
       </c>
       <c r="O61" t="n">
-        <v>20240828</v>
+        <v>20240823</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240828120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240823180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR61" t="inlineStr">
@@ -7626,7 +7626,7 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
@@ -7649,10 +7649,10 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>20240823</v>
+        <v>20240907</v>
       </c>
       <c r="O62" t="n">
-        <v>20240823</v>
+        <v>20240907</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240823180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240907180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240821120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240821060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR65" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240821060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240821120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR66" t="inlineStr">
@@ -8229,10 +8229,10 @@
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>20240909</v>
+        <v>20240831</v>
       </c>
       <c r="O67" t="n">
-        <v>20240909</v>
+        <v>20240831</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240909060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240831060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -8554,7 +8554,7 @@
         <v>69</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -8577,10 +8577,10 @@
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>20240825</v>
+        <v>20240904</v>
       </c>
       <c r="O70" t="n">
-        <v>20240825</v>
+        <v>20240904</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240825060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240904120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR70" t="inlineStr">
@@ -8670,7 +8670,7 @@
         <v>70</v>
       </c>
       <c r="E71" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
@@ -8693,10 +8693,10 @@
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>20240830</v>
+        <v>20240825</v>
       </c>
       <c r="O71" t="n">
-        <v>20240830</v>
+        <v>20240825</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240830060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240825060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR71" t="inlineStr">
@@ -8809,10 +8809,10 @@
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>20240904</v>
+        <v>20240830</v>
       </c>
       <c r="O72" t="n">
-        <v>20240904</v>
+        <v>20240830</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240904120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240830060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -8925,10 +8925,10 @@
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>20240831</v>
+        <v>20240909</v>
       </c>
       <c r="O73" t="n">
-        <v>20240831</v>
+        <v>20240909</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240831060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240909060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR73" t="inlineStr">
@@ -9389,10 +9389,10 @@
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>20240827</v>
+        <v>20240822</v>
       </c>
       <c r="O77" t="n">
-        <v>20240827</v>
+        <v>20240822</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240827180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240822120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -9482,7 +9482,7 @@
         <v>77</v>
       </c>
       <c r="E78" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
@@ -9505,10 +9505,10 @@
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>20240904</v>
+        <v>20240818</v>
       </c>
       <c r="O78" t="n">
-        <v>20240904</v>
+        <v>20240818</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240904060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240818120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR78" t="inlineStr">
@@ -9598,7 +9598,7 @@
         <v>78</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
@@ -9621,10 +9621,10 @@
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>20240822</v>
+        <v>20240902</v>
       </c>
       <c r="O79" t="n">
-        <v>20240822</v>
+        <v>20240902</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240822120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240902210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR79" t="inlineStr">
@@ -9737,10 +9737,10 @@
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>20240825</v>
+        <v>20240827</v>
       </c>
       <c r="O80" t="n">
-        <v>20240825</v>
+        <v>20240827</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240825120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240827180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR80" t="inlineStr">
@@ -9830,7 +9830,7 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
@@ -9853,10 +9853,10 @@
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>20240818</v>
+        <v>20240908</v>
       </c>
       <c r="O81" t="n">
-        <v>20240818</v>
+        <v>20240908</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240818120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240908180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR81" t="inlineStr">
@@ -9946,7 +9946,7 @@
         <v>81</v>
       </c>
       <c r="E82" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
@@ -9969,10 +9969,10 @@
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>20240908</v>
+        <v>20240816</v>
       </c>
       <c r="O82" t="n">
-        <v>20240908</v>
+        <v>20240816</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240908180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240816150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR82" t="inlineStr">
@@ -10201,10 +10201,10 @@
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>20240902</v>
+        <v>20240904</v>
       </c>
       <c r="O84" t="n">
-        <v>20240902</v>
+        <v>20240904</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240902210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240904060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR84" t="inlineStr">
@@ -10433,10 +10433,10 @@
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>20240816</v>
+        <v>20240825</v>
       </c>
       <c r="O86" t="n">
-        <v>20240816</v>
+        <v>20240825</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240816150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240825120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR86" t="inlineStr">
@@ -10758,7 +10758,7 @@
         <v>88</v>
       </c>
       <c r="E89" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>3</v>
@@ -10781,10 +10781,10 @@
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>20240910</v>
+        <v>20240822</v>
       </c>
       <c r="O89" t="n">
-        <v>20240910</v>
+        <v>20240822</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="AQ89" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240910120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240822150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR89" t="inlineStr">
@@ -10874,7 +10874,7 @@
         <v>89</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
@@ -10897,10 +10897,10 @@
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>20240822</v>
+        <v>20240910</v>
       </c>
       <c r="O90" t="n">
-        <v>20240822</v>
+        <v>20240910</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240822150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240910150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR90" t="inlineStr">
@@ -11129,10 +11129,10 @@
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>20240831</v>
+        <v>20240903</v>
       </c>
       <c r="O92" t="n">
-        <v>20240831</v>
+        <v>20240903</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240831180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240903180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
@@ -11222,7 +11222,7 @@
         <v>92</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F93" t="n">
         <v>3</v>
@@ -11245,10 +11245,10 @@
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>20240816</v>
+        <v>20240830</v>
       </c>
       <c r="O93" t="n">
-        <v>20240816</v>
+        <v>20240830</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240816120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240830120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR93" t="inlineStr">
@@ -11361,10 +11361,10 @@
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>20240822</v>
+        <v>20240816</v>
       </c>
       <c r="O94" t="n">
-        <v>20240822</v>
+        <v>20240816</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240822060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240816120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR94" t="inlineStr">
@@ -11454,7 +11454,7 @@
         <v>94</v>
       </c>
       <c r="E95" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>3</v>
@@ -11477,10 +11477,10 @@
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
-        <v>20240907</v>
+        <v>20240822</v>
       </c>
       <c r="O95" t="n">
-        <v>20240907</v>
+        <v>20240822</v>
       </c>
       <c r="P95" t="n">
         <v>1</v>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240907150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240822060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR95" t="inlineStr">
@@ -11593,10 +11593,10 @@
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
-        <v>20240830</v>
+        <v>20240910</v>
       </c>
       <c r="O96" t="n">
-        <v>20240830</v>
+        <v>20240910</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240830120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240910120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR96" t="inlineStr">
@@ -11709,10 +11709,10 @@
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="O97" t="n">
-        <v>20240903</v>
+        <v>20240902</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240903180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240902060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -11802,7 +11802,7 @@
         <v>97</v>
       </c>
       <c r="E98" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>3</v>
@@ -11825,10 +11825,10 @@
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>20240902</v>
+        <v>20240820</v>
       </c>
       <c r="O98" t="n">
-        <v>20240902</v>
+        <v>20240820</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -11893,7 +11893,7 @@
       </c>
       <c r="AQ98" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240902060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240820120000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR98" t="inlineStr">
@@ -11941,10 +11941,10 @@
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>20240910</v>
+        <v>20240907</v>
       </c>
       <c r="O99" t="n">
-        <v>20240910</v>
+        <v>20240907</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="AQ99" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240910150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240907150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR99" t="inlineStr">
@@ -12034,7 +12034,7 @@
         <v>99</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F100" t="n">
         <v>3</v>
@@ -12057,10 +12057,10 @@
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>20240820</v>
+        <v>20240831</v>
       </c>
       <c r="O100" t="n">
-        <v>20240820</v>
+        <v>20240831</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="AQ100" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240820120000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240831180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR100" t="inlineStr">
@@ -12637,10 +12637,10 @@
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
-        <v>20240825</v>
+        <v>20240815</v>
       </c>
       <c r="O105" t="n">
-        <v>20240825</v>
+        <v>20240815</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240825210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240815150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR105" t="inlineStr">
@@ -12753,10 +12753,10 @@
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>20240825</v>
+        <v>20240814</v>
       </c>
       <c r="O106" t="n">
-        <v>20240825</v>
+        <v>20240814</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -12810,18 +12810,18 @@
         </is>
       </c>
       <c r="AM106" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="n">
-        <v>15.1</v>
+        <v>10.9</v>
       </c>
       <c r="AP106" t="n">
         <v>55.74</v>
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240825180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240814150000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR106" t="inlineStr">
@@ -12869,10 +12869,10 @@
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
-        <v>20240815</v>
+        <v>20240817</v>
       </c>
       <c r="O107" t="n">
-        <v>20240815</v>
+        <v>20240817</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240815150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240817060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
@@ -12962,7 +12962,7 @@
         <v>107</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
@@ -12985,10 +12985,10 @@
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>20240814</v>
+        <v>20240909</v>
       </c>
       <c r="O108" t="n">
-        <v>20240814</v>
+        <v>20240909</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -13046,14 +13046,14 @@
       </c>
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="AP108" t="n">
         <v>55.74</v>
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240814180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240909180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR108" t="inlineStr">
@@ -13078,7 +13078,7 @@
         <v>108</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F109" t="n">
         <v>3</v>
@@ -13101,10 +13101,10 @@
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
-        <v>20240816</v>
+        <v>20240906</v>
       </c>
       <c r="O109" t="n">
-        <v>20240816</v>
+        <v>20240906</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="AQ109" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240816210000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240906060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR109" t="inlineStr">
@@ -13194,7 +13194,7 @@
         <v>109</v>
       </c>
       <c r="E110" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>3</v>
@@ -13217,10 +13217,10 @@
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>20240906</v>
+        <v>20240816</v>
       </c>
       <c r="O110" t="n">
-        <v>20240906</v>
+        <v>20240816</v>
       </c>
       <c r="P110" t="n">
         <v>1</v>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="AQ110" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240906060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240816180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR110" t="inlineStr">
@@ -13310,7 +13310,7 @@
         <v>110</v>
       </c>
       <c r="E111" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>3</v>
@@ -13333,10 +13333,10 @@
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
-        <v>20240909</v>
+        <v>20240816</v>
       </c>
       <c r="O111" t="n">
-        <v>20240909</v>
+        <v>20240816</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="AQ111" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240909180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240816210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR111" t="inlineStr">
@@ -13449,10 +13449,10 @@
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>20240817</v>
+        <v>20240825</v>
       </c>
       <c r="O112" t="n">
-        <v>20240817</v>
+        <v>20240825</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240817060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240825210000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
@@ -13565,10 +13565,10 @@
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>20240822</v>
+        <v>20240827</v>
       </c>
       <c r="O113" t="n">
-        <v>20240822</v>
+        <v>20240827</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="AQ113" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240822180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240827060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR113" t="inlineStr">
@@ -13681,10 +13681,10 @@
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>20240816</v>
+        <v>20240814</v>
       </c>
       <c r="O114" t="n">
-        <v>20240816</v>
+        <v>20240814</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -13742,14 +13742,14 @@
       </c>
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="AP114" t="n">
         <v>55.74</v>
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240816180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240814180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR114" t="inlineStr">
@@ -13797,10 +13797,10 @@
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
-        <v>20240819</v>
+        <v>20240822</v>
       </c>
       <c r="O115" t="n">
-        <v>20240819</v>
+        <v>20240822</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -13854,7 +13854,7 @@
         </is>
       </c>
       <c r="AM115" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="n">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="AQ115" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240819180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240822180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR115" t="inlineStr">
@@ -13913,10 +13913,10 @@
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>20240827</v>
+        <v>20240820</v>
       </c>
       <c r="O116" t="n">
-        <v>20240827</v>
+        <v>20240820</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240827060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240820180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR116" t="inlineStr">
@@ -14029,10 +14029,10 @@
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>20240814</v>
+        <v>20240815</v>
       </c>
       <c r="O117" t="n">
-        <v>20240814</v>
+        <v>20240815</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -14086,18 +14086,18 @@
         </is>
       </c>
       <c r="AM117" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="n">
-        <v>10.9</v>
+        <v>15.1</v>
       </c>
       <c r="AP117" t="n">
         <v>55.74</v>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240814150000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240815180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
@@ -14122,7 +14122,7 @@
         <v>117</v>
       </c>
       <c r="E118" t="n">
-        <v>8594</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>3</v>
@@ -14145,10 +14145,10 @@
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>20240907</v>
+        <v>20240825</v>
       </c>
       <c r="O118" t="n">
-        <v>20240907</v>
+        <v>20240825</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="AQ118" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240907060000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240825180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR118" t="inlineStr">
@@ -14261,10 +14261,10 @@
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
-        <v>20240820</v>
+        <v>20240819</v>
       </c>
       <c r="O119" t="n">
-        <v>20240820</v>
+        <v>20240819</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -14318,7 +14318,7 @@
         </is>
       </c>
       <c r="AM119" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="AQ119" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240820180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240819180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR119" t="inlineStr">
@@ -14470,7 +14470,7 @@
         <v>120</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>8594</v>
       </c>
       <c r="F121" t="n">
         <v>3</v>
@@ -14493,10 +14493,10 @@
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
-        <v>20240815</v>
+        <v>20240907</v>
       </c>
       <c r="O121" t="n">
-        <v>20240815</v>
+        <v>20240907</v>
       </c>
       <c r="P121" t="n">
         <v>1</v>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="AQ121" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240815180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240907060000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR121" t="inlineStr">
@@ -14725,10 +14725,10 @@
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
-        <v>20240904</v>
+        <v>20240901</v>
       </c>
       <c r="O123" t="n">
-        <v>20240904</v>
+        <v>20240901</v>
       </c>
       <c r="P123" t="n">
         <v>1</v>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="AQ123" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240904180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240901180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR123" t="inlineStr">
@@ -14841,10 +14841,10 @@
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
-        <v>20240901</v>
+        <v>20240904</v>
       </c>
       <c r="O124" t="n">
-        <v>20240901</v>
+        <v>20240904</v>
       </c>
       <c r="P124" t="n">
         <v>1</v>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="AQ124" t="inlineStr">
         <is>
-          <t>T_IUSN74_C_LFPW_20240901180000_RADIOSONDAGE_CAPVERT.bufr</t>
+          <t>T_IUSN74_C_LFPW_20240904180000_RADIOSONDAGE_CAPVERT.bufr</t>
         </is>
       </c>
       <c r="AR124" t="inlineStr">
